--- a/biology/Biochimie/Carbomère/Carbomère.xlsx
+++ b/biology/Biochimie/Carbomère/Carbomère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carbom%C3%A8re</t>
+          <t>Carbomère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les carbomères sont des polymères synthétiques hydrophiles d'acide acrylique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carbom%C3%A8re</t>
+          <t>Carbomère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les carbomères sont utilisés comme émulsifiants stabilisateurs ou comme agents épaississants ayant l'apparence d'un gel aqueux[1] dans l'industrie pharmaceutique ou cosmétique. L'aminométhyl propanol permet de les stabiliser sous la forme d'un gel[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les carbomères sont utilisés comme émulsifiants stabilisateurs ou comme agents épaississants ayant l'apparence d'un gel aqueux dans l'industrie pharmaceutique ou cosmétique. L'aminométhyl propanol permet de les stabiliser sous la forme d'un gel.
 </t>
         </is>
       </c>
